--- a/ResultadoEleicoesDistritos/VIANA DO CASTELO_MELGAÇO.xlsx
+++ b/ResultadoEleicoesDistritos/VIANA DO CASTELO_MELGAÇO.xlsx
@@ -597,64 +597,64 @@
         <v>2892</v>
       </c>
       <c r="H2" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="I2" t="n">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="J2" t="n">
-        <v>1225</v>
+        <v>1144</v>
       </c>
       <c r="K2" t="n">
+        <v>6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>324</v>
+      </c>
+      <c r="M2" t="n">
+        <v>19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>240</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13</v>
+      </c>
+      <c r="S2" t="n">
+        <v>128</v>
+      </c>
+      <c r="T2" t="n">
+        <v>202</v>
+      </c>
+      <c r="U2" t="n">
+        <v>18</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1830</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>333</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N2" t="n">
-        <v>194</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="X2" t="n">
+        <v>1904</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
-        <v>20</v>
-      </c>
-      <c r="S2" t="n">
-        <v>137</v>
-      </c>
-      <c r="T2" t="n">
-        <v>213</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1839</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1858</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4</v>
-      </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
